--- a/documentation/standards/standard-reference.xlsx
+++ b/documentation/standards/standard-reference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="6030"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="18315" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Standards" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,18 +137,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.oracle.com/technetwork/java/javase/documentation/index-137868.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://sourceforge.net/adobe/flexsdk/wiki/Coding%20Conventions/</t>
-  </si>
-  <si>
-    <t>http://www.oracle.com/technetwork/java/javase/documentation/index-137868.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://google-styleguide.googlecode.com/svn/trunk/javascriptguide.xml</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google JavaScript Style Guide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +298,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +330,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -646,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -699,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -717,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -731,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1">
@@ -763,7 +781,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -785,7 +803,7 @@
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -807,7 +825,7 @@
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -818,8 +836,19 @@
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>29</v>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -833,6 +862,7 @@
     <hyperlink ref="C9" r:id="rId6" location="beans-beanname"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
